--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_T_(Y-ADN)/Haplogroupe_T_(Y-ADN).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_T_(Y-ADN)/Haplogroupe_T_(Y-ADN).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En génétique humaine, l’haplogroupe T est un haplogroupe de l'ADN du chromosome Y humain. De 2002 à 2008, il fut connu comme haplogroupe K2. Ne pas confondre avec l'haplogroupe T de l'ADN mitochondrial, du même nom.
 Le polymorphisme à évènement unique qui définit ce clade est généralement considéré comme un polymorphisme nucléotidique singulier (sigle anglais SNP) M184. D'autres SNP, L206, M193, M272 sont couramment considérés comme équivalents par la phylogénétique.
@@ -512,13 +524,15 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « On pense que T1-M70 originaire d'Asie après l'émergence des mutations K-M9 (45–30 ky) (Underhill et al. 2001a) et T-M184. Comme on peut déduire des données collectées (Underhill et al. 2000; Cruciani et al. 2002; Semino et al. 2002; present study), Les individus T1-M70, quelque temps plus tard, allèrent vers le sud en Afrique. Alors que ce haplogroupe a une fréquence relativement haute en Égypte, Oman, Tanzanie, Éthiopie ([Scozzari et al. 1997, 1999])" »
 — J. R. Luis et al.: The Levant versus the Horn of Africa: Evidence for Bidirectional Corridors of Human Migrations (Errata), American Journal of Human Genetics, 74: 532-544.
-L'analyse de la structure de son réseau en Europe suggère que l'haplogroupe T est « un ancien lignage indigène européen diversifié, plutôt que des immigrants récents du Moyen-Orient ou d'Afrique » (King et al. 2007:585)[2]
-La présence en Europe de lignages appartenant aux subclades T1a ou T1a1 (Ancien T1b) reflète probablement de multiples épisodes de flux génique. Les haplogroupes T1a* sont issus probablement d'un flux génique plus ancien[3].
+L'analyse de la structure de son réseau en Europe suggère que l'haplogroupe T est « un ancien lignage indigène européen diversifié, plutôt que des immigrants récents du Moyen-Orient ou d'Afrique » (King et al. 2007:585)
+La présence en Europe de lignages appartenant aux subclades T1a ou T1a1 (Ancien T1b) reflète probablement de multiples épisodes de flux génique. Les haplogroupes T1a* sont issus probablement d'un flux génique plus ancien.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Distribution haplogroupe T1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe T1 (M70, M184, M193, M272) est trouvé à une petite majorité chez les indigènes Kurukh, Bauris &amp; Lodha en Inde; et une forte minorité de Rajus et Mahli en Inde, Somalis, Sud Égyptiens et Foulbé en Afrique, Chians, Allemands Stilfser/Tyroliens Saccensi/Siciliens, Eivissencs et Juifs du Nord-Est Portugal en Europe, Zoroastriens, Bakhtiaris au Moyen-Orient, et les Xibes en Extrême-Orient.
-Puisque l'haplogroupe T1 n'est pas associé avec les lignages R1, G et J qui sont entrés en Afrique venant d'Eurasie relativement récemment, Luis et al. (2004) suggère que la présence du clade sur le continent africain peut, comme pour les représentants de R1b-V88*, pointer à une plus ancienne arrivée depuis l'Asie. Le Levant plus que l'Arabie du Sud apparaît être la principale route d'accès, car les haplogroupes égyptiens et turcs sont considérablement plus vieux en âge (13 700 avant présent et 9 000 avant présent, respectivement) que ceux trouvés à Oman (seulement 1 600 avant présent). Selon les auteurs, la distribution moderne suivant un modèle en tâches pour l'haplogroupe T1 à l'intérieur de l'Afrique peut donc représenter les restes d'une présence précoce plus étendue du clade. Les expansions plus tardives de populations portant des lignages E1b1b, E1b1a, G et J peuvent les avoir fait très largement surpasser en importance numérique les porteurs des clades T dans de nombreuses régions[4].
-Mendez et al. (2011) ont observé qu'une notable fréquence d'un échantillon Lemba d'Afrique du Sud (18 %) portait exclusivement l'haplogroupe T1b-L131 qui est considéré originaire du Proche-Orient. T1b* partage une même période estimée d'expansion avec les T1* Somalis[3].
-La distribution de l'haplogroupe T1 dans beaucoup de parties de l'Europe est diffuse ou régionalisée ; par exemple, l'haplogroupe T1 fut trouvé pour 1,7 % (10/591) dans un ensemble de six échantillons d'hommes du Sud-Ouest de la Russie, mais il était complètement absent d'un ensemble de huit échantillons totalisant 637 individus de la moitié nord de la Russie européenne[5].
+Puisque l'haplogroupe T1 n'est pas associé avec les lignages R1, G et J qui sont entrés en Afrique venant d'Eurasie relativement récemment, Luis et al. (2004) suggère que la présence du clade sur le continent africain peut, comme pour les représentants de R1b-V88*, pointer à une plus ancienne arrivée depuis l'Asie. Le Levant plus que l'Arabie du Sud apparaît être la principale route d'accès, car les haplogroupes égyptiens et turcs sont considérablement plus vieux en âge (13 700 avant présent et 9 000 avant présent, respectivement) que ceux trouvés à Oman (seulement 1 600 avant présent). Selon les auteurs, la distribution moderne suivant un modèle en tâches pour l'haplogroupe T1 à l'intérieur de l'Afrique peut donc représenter les restes d'une présence précoce plus étendue du clade. Les expansions plus tardives de populations portant des lignages E1b1b, E1b1a, G et J peuvent les avoir fait très largement surpasser en importance numérique les porteurs des clades T dans de nombreuses régions.
+Mendez et al. (2011) ont observé qu'une notable fréquence d'un échantillon Lemba d'Afrique du Sud (18 %) portait exclusivement l'haplogroupe T1b-L131 qui est considéré originaire du Proche-Orient. T1b* partage une même période estimée d'expansion avec les T1* Somalis.
+La distribution de l'haplogroupe T1 dans beaucoup de parties de l'Europe est diffuse ou régionalisée ; par exemple, l'haplogroupe T1 fut trouvé pour 1,7 % (10/591) dans un ensemble de six échantillons d'hommes du Sud-Ouest de la Russie, mais il était complètement absent d'un ensemble de huit échantillons totalisant 637 individus de la moitié nord de la Russie européenne.
 </t>
         </is>
       </c>
@@ -581,23 +597,11 @@
           <t>Distribution haplogroupe T (hors T1)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">FTDNA, une société commerciale de généalogie génétique expose une carte qui montre une relativement haute fréquence de l'haplogroupe T chez quelques Aborigènes australiens. Probablement ces populations correspondent à celles antérieurement rapportées dans plusieurs études comme K*(M9) avec une fréquence proche de 30 % en Australie du Nord. Selon FTDNA, leur haplogroupe T est défini par le SNP M184 tandis que M70 définit T1.
-Asie du Sud
-L'haplogroupe T1-M70 a été détecté chez :
-Avec K-M9+, non confirmé mais probablement T1-M70+ : 56,6 % (30/53) des Kunabhis au Karnataka[13], 32,5 % (13/40) des Kammas en Andhra Pradesh[14], 26,8 % (11/41) de Brahmanes en Visakhapatnam[14], 25 % (1/4) de Kattunaiken en Inde du Sud[15], 22,4 % (11/49) de Telougous en Andhra Pradesh[16], 20 % (1/5) de Ansâri en Asie du Sud[17], 10 % (2/20) de Poroja en Andhra Pradesh[14], 9,8 % (5/51) de Pandits au Cachemire[8], 8,2 % (4/49) de Gujars au Cachemire[8], 7,7 % (1/13) de Siddis (migrants venus d'Éthiopie) en Andhra Pradesh[14], 5,5 % (3/55) de Adi en Inde du Nord[18], 5,5 % (7/128) de Pardhans à Adilabad[16], 5,3 % (2/38) de Brahmanes du Bihar[8], 4,3 % (1/23) de Bagatas en Andhra Pradesh[14], 4,2 % (1/24) de Valmiki en Andhra Pradesh[14], 3,6 % (2/56) de Syed en Asie du Sud[17], 3,1 % (1/32) de Brahmanes au Maharashtra[8], 3,1 % (2/64) de Brahmanes au Gujarat[8], 2,9 % (1/35) de Rajputs en Uttar Pradesh[19], 2,3 % (1/44) de Brahmanes au Peruru[14], et 1,7 % (1/59) de Manghi au Maharashtra[16].
-Aussi dans les Desasth-Brahmanes au Maharashtra (1/19 ou 5,3 %) et de Chitpavan-Brahmanes au Konkan (1/21 ou 4,8 %) de Chitpavan-Brahmanes au Konkan (2/66 ou 3 %).
-Europe
-Avec K-M9+, non confirmé, mais probablement T1-M70+ : 14 % (3/23) de Russes de l'oblast de Yaroslavl[40], 12,5 % (3/24) d'Italiens à Matera[41], 10,3 % (3/29) d'Italiens à Avezzano[41], 10 % (3/30) de Tyroliens du Val di Non[41], 10 % (2/20) d'Italiens de Pescara[41], 8,7 % (4/46) d[Italians de Bénévent[41], 8,3 % [4/48) d'Italiens de Cilento[41], 8,3 % (7/84) d'Italiens de l'Ouest Campanie[42], 7,8 % (4/51) d'Italiens du Sud Latium[42], 7,4 % (2/27) d'Italiens de Paola en Calabre[41], 7,3 % (11/150) d'Italiens en Centre-Sud Italie[43], 7,1 % (8/113) de Serbes en Serbie[44], 7 % (6/86) de Sardes à Tempio[45], 4,7 % (2/42) d'Aroumains en Roumanie[46], 3,7 % (3/82) d'Italiens à Biella[47], 3,7 % (1/27) d'Andalous de la province de Cordoue[28], 3,3 % (2/60) de Léonais de la province de León|[28], 3,2 % (1/31) d'Italiens à Postua[47], 3,2 % (1/31) d'Italiens à Cavaglià[47], 3,1 % (3/97) de Calabrais à Reggio de Calabre,|[33]. 2,8 % (1/36) de Russes dans une partie de la Russie[48], 2,8 % (2/72) d'Italiens en Sud Apulie[49], 2,7 % (1/37) de Calabrais à Cosenza[50], 2,6 % (3/114) de Serbes à Belgrade[51], 2,5 % (1/40) de Russes à Pskov[40], 2,4 % (1/42) de Russes à Kalouga[40], 2,2 % (2/89) de Transylvains à Miercurea-Ciuc[52], 2,2 % (2/92) d'Italiens à Trino, province de Verceil[47], 1,9 % (2/104) d'Italiens à Brescia[53], 1,9 % (2/104) de Roumains en Roumanie[54], 1,7 % (4/237) de Serbes et de Monténégrins en Serbie et au Monténégro[55], 1,7 % (1/59) d'Italiens dans les Marches[49], 1,7 % (1/59) de Calabrais à Catanzaro[50], 1,6 % (3/183) de Grecs en Grèce du Nord[56], 1,3 % (2/150) de Suisses-allemands dans le canton de Zurich[57], 1,3 % (1/79) d'Italiens en Sud Toscane et Nord Latium[49], 1,1 % (1/92) de Néerlandais à Leyde[58], 0,8 % (1/132) d "Andalous" dans le Nord-Ouest de la Tunisie[59], 0,5 % (1/185) de Serbes à Novi Sad (Voivodine)[60], 0,5 % (1/186) de Polonais en Polésie[61] et 0,4 % (1/234) d'Allemands à Halle, Saxe-Anhalt[62].
-D'autres endroits où on a trouvé une significative proportion d'individus haplogroupe T ; Trentin (2/67 ou 3 %), vallée de l'Isarco (1/34 ou 2,9 %), Münster (3/102 ou 2,9 %), Mariña de Lugo (1/34 ou 2,9 %), Heraklion (3/104 ou 2,9 %), Roslavl (3/107 ou 2,8 %), Munich (3/112 ou 2,7 %), Ourense (1/37 ou 2,7 %), Livny (3/110 or 2,7 %), Biella (3/114 ou 2,6 %), Entre Douro et Vouga (6/228 ou 2,6 %), Porto (3/118 ou 2,5 %), Urbino (1/40 ou 2,5 %), Péninsule Ibérique (16/629 ou 2,5 %), Blekinge/Kristianstad (1/41 ou 2,4 %), Biélorussie (1/41 ou 2,4 %), Modène (3/130 ou 2,3 %), îles Féroé (2/89 ou 2,2 %), République tchèque et Slovaquie (1/45 or 2,2 %), Provence-Alpes-Côte d'Azur (1/45 ou 2,2 %), Pristen (1/45 ou 2,2 %), Cáceres (2/91 ou 2,2 %), Brac (1/47 ou 2,1 %), Satakunta (1/48 ou 2,1 %), Ouest-Croatie (2/101 ou 2 %), Ukraine (1/50 ou 2 %), Greifswald (2/104 ou 1,9 %), Moldaves de Sofia (1/54 ou 1,9 %), Uppsala (1/55 ou 1,9 %), Lublin (2/112 ou 1,8 %), Serpa dans le district de Beja (1/54 ou 1,8 %), Grecs Macédoine grecque|Macédoniens] (1/57 ou 1,8 %), Nea Nikomedeia (1/57 ou 1,8 %), Sesklo/Dimini (1/57 ou 1,8 %), Lerne/Franchthi (1/57 ou 1,8 %), Açores (2/121 ou 1,7 %), Viana do Castelo (1/59 ou 1,7 %), Brabant-Septentrional (1,54 %), Midi-Pyrénées (1/67 ou 1,5 %), Belgorod (2/143 ou 1,4 %), Sardaigne (1/77 ou 1,3 %), district de Burzyansky en Bachkirie (1/80 ou 1,3 %), Hambourg (2/161 or 1,2 %), Cosaques du Kouban (1/90 ou 1,1 %) Rostock (1/96 ou 1 %), Magdebourg (1/100 ou 1 %) et Stockholm (2/228 ou 0,9 %)[63],[64],[65],[66],[67],[68],[6],[42],[31],[69],[70],[71],[72],[73],[74],[75],[76],[77],[78],[79],[80],[81],[82],[83],[84],[85],[20],[86],[87],[88],[89],[90]
-Selon les résultats du projet ADN Italie de la compagnie FTDNA de tests génétiques, 3,9 % d'Italiens appartiennent à cet haplogroupe[91]. Approximativement 3 % de Juifs séfarades et 2 % de Juifs Ashkenazim appartiennent à l'haplogroupe T[92].
-Moyen-Orient et Caucase
-Non confirmé mais probablement T1-M70+ : 28 % (7/25) des Lezguiens au Daghestan[95], 21,7 % (5/23) des Ossètes à Zamankul[109], 14 % (7/50) des Iraniens à Ispahan[95], 13 % (3/23) des Ossètes à Zil'ga[109], 12,6 % (11/87) de Kurdes Kurmandji dans l'est de la Turquie[110], 11,8 % (2/17) d ArabesPalestiniens en Palestine[17], 8,3 % (1/12) d'Iraniens de Chiraz[111], 8,3 % (2/24) d'Ossètes à Alagir[109], 8 % (2/25) of Kurdes Kurmandji en Géorgie[110], 7,5 % (6/80) d'Iraniens à Téhéran[95],[112], 7,4 % (10/135) d ArabesPalestiniens dans un village en Israël[17], 7 % (10/143) of d ArabesPalestiniens ein Israël et en Palestine[17], 5 % (1/19) de Tchétchènes en Tchétchénie[95],[112], 4,2 % (3/72) d'Azeris en Azerbaïdjan[95],[112], 4,1 % (2/48) d'Iraniens à Ispahan[112], 4 % (4/100) d'Arméniens en Arménie[95],[112], 4 % (1/24) de Bédouins en Israël[17] et 2,6 % (1/39) de Turcs à Ankara[112].
-Afrique
-Non confirmé mais probablement T1-M70+ : 9,7 % (3/31) de Datogs en Centre Tanzanie[125], 5,8 % (4/69) de Kordofaniens au Kordofan[17], 5,6 % (1/18) de Touaregs à Gorom-Gorom[132], 4,8 % (5/105) de Tunisiens à Sfax[133], 4,8 % (3/63) de Libyens à Tripoli[134], 2,6 % (1/39) de Hutus au Rwanda[135] 2,1 % (1/47) de Berbères à Sejnane[136], 1,9 % (1/53) d'Ovimbundus en Angola[137], et 1,5 % (1/68) de Mozabites à Ghardaia[138].
-Extrême-Orient
-Non confirmé mais probablement T1-M70+ : 4,9 % (2/41) de Xibe du [Xinjiang][143], 2 % (4/204) de Hui au Liaoning[144], et 0,9 % (1/113) de Bidayuh au Sarawak[145].
 </t>
         </is>
       </c>
@@ -623,13 +627,207 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution haplogroupe T (hors T1)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Asie du Sud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe T1-M70 a été détecté chez :
+Avec K-M9+, non confirmé mais probablement T1-M70+ : 56,6 % (30/53) des Kunabhis au Karnataka, 32,5 % (13/40) des Kammas en Andhra Pradesh, 26,8 % (11/41) de Brahmanes en Visakhapatnam, 25 % (1/4) de Kattunaiken en Inde du Sud, 22,4 % (11/49) de Telougous en Andhra Pradesh, 20 % (1/5) de Ansâri en Asie du Sud, 10 % (2/20) de Poroja en Andhra Pradesh, 9,8 % (5/51) de Pandits au Cachemire, 8,2 % (4/49) de Gujars au Cachemire, 7,7 % (1/13) de Siddis (migrants venus d'Éthiopie) en Andhra Pradesh, 5,5 % (3/55) de Adi en Inde du Nord, 5,5 % (7/128) de Pardhans à Adilabad, 5,3 % (2/38) de Brahmanes du Bihar, 4,3 % (1/23) de Bagatas en Andhra Pradesh, 4,2 % (1/24) de Valmiki en Andhra Pradesh, 3,6 % (2/56) de Syed en Asie du Sud, 3,1 % (1/32) de Brahmanes au Maharashtra, 3,1 % (2/64) de Brahmanes au Gujarat, 2,9 % (1/35) de Rajputs en Uttar Pradesh, 2,3 % (1/44) de Brahmanes au Peruru, et 1,7 % (1/59) de Manghi au Maharashtra.
+Aussi dans les Desasth-Brahmanes au Maharashtra (1/19 ou 5,3 %) et de Chitpavan-Brahmanes au Konkan (1/21 ou 4,8 %) de Chitpavan-Brahmanes au Konkan (2/66 ou 3 %).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution haplogroupe T (hors T1)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec K-M9+, non confirmé, mais probablement T1-M70+ : 14 % (3/23) de Russes de l'oblast de Yaroslavl, 12,5 % (3/24) d'Italiens à Matera, 10,3 % (3/29) d'Italiens à Avezzano, 10 % (3/30) de Tyroliens du Val di Non, 10 % (2/20) d'Italiens de Pescara, 8,7 % (4/46) d[Italians de Bénévent, 8,3 % [4/48) d'Italiens de Cilento, 8,3 % (7/84) d'Italiens de l'Ouest Campanie, 7,8 % (4/51) d'Italiens du Sud Latium, 7,4 % (2/27) d'Italiens de Paola en Calabre, 7,3 % (11/150) d'Italiens en Centre-Sud Italie, 7,1 % (8/113) de Serbes en Serbie, 7 % (6/86) de Sardes à Tempio, 4,7 % (2/42) d'Aroumains en Roumanie, 3,7 % (3/82) d'Italiens à Biella, 3,7 % (1/27) d'Andalous de la province de Cordoue, 3,3 % (2/60) de Léonais de la province de León|, 3,2 % (1/31) d'Italiens à Postua, 3,2 % (1/31) d'Italiens à Cavaglià, 3,1 % (3/97) de Calabrais à Reggio de Calabre,|. 2,8 % (1/36) de Russes dans une partie de la Russie, 2,8 % (2/72) d'Italiens en Sud Apulie, 2,7 % (1/37) de Calabrais à Cosenza, 2,6 % (3/114) de Serbes à Belgrade, 2,5 % (1/40) de Russes à Pskov, 2,4 % (1/42) de Russes à Kalouga, 2,2 % (2/89) de Transylvains à Miercurea-Ciuc, 2,2 % (2/92) d'Italiens à Trino, province de Verceil, 1,9 % (2/104) d'Italiens à Brescia, 1,9 % (2/104) de Roumains en Roumanie, 1,7 % (4/237) de Serbes et de Monténégrins en Serbie et au Monténégro, 1,7 % (1/59) d'Italiens dans les Marches, 1,7 % (1/59) de Calabrais à Catanzaro, 1,6 % (3/183) de Grecs en Grèce du Nord, 1,3 % (2/150) de Suisses-allemands dans le canton de Zurich, 1,3 % (1/79) d'Italiens en Sud Toscane et Nord Latium, 1,1 % (1/92) de Néerlandais à Leyde, 0,8 % (1/132) d "Andalous" dans le Nord-Ouest de la Tunisie, 0,5 % (1/185) de Serbes à Novi Sad (Voivodine), 0,5 % (1/186) de Polonais en Polésie et 0,4 % (1/234) d'Allemands à Halle, Saxe-Anhalt.
+D'autres endroits où on a trouvé une significative proportion d'individus haplogroupe T ; Trentin (2/67 ou 3 %), vallée de l'Isarco (1/34 ou 2,9 %), Münster (3/102 ou 2,9 %), Mariña de Lugo (1/34 ou 2,9 %), Heraklion (3/104 ou 2,9 %), Roslavl (3/107 ou 2,8 %), Munich (3/112 ou 2,7 %), Ourense (1/37 ou 2,7 %), Livny (3/110 or 2,7 %), Biella (3/114 ou 2,6 %), Entre Douro et Vouga (6/228 ou 2,6 %), Porto (3/118 ou 2,5 %), Urbino (1/40 ou 2,5 %), Péninsule Ibérique (16/629 ou 2,5 %), Blekinge/Kristianstad (1/41 ou 2,4 %), Biélorussie (1/41 ou 2,4 %), Modène (3/130 ou 2,3 %), îles Féroé (2/89 ou 2,2 %), République tchèque et Slovaquie (1/45 or 2,2 %), Provence-Alpes-Côte d'Azur (1/45 ou 2,2 %), Pristen (1/45 ou 2,2 %), Cáceres (2/91 ou 2,2 %), Brac (1/47 ou 2,1 %), Satakunta (1/48 ou 2,1 %), Ouest-Croatie (2/101 ou 2 %), Ukraine (1/50 ou 2 %), Greifswald (2/104 ou 1,9 %), Moldaves de Sofia (1/54 ou 1,9 %), Uppsala (1/55 ou 1,9 %), Lublin (2/112 ou 1,8 %), Serpa dans le district de Beja (1/54 ou 1,8 %), Grecs Macédoine grecque|Macédoniens] (1/57 ou 1,8 %), Nea Nikomedeia (1/57 ou 1,8 %), Sesklo/Dimini (1/57 ou 1,8 %), Lerne/Franchthi (1/57 ou 1,8 %), Açores (2/121 ou 1,7 %), Viana do Castelo (1/59 ou 1,7 %), Brabant-Septentrional (1,54 %), Midi-Pyrénées (1/67 ou 1,5 %), Belgorod (2/143 ou 1,4 %), Sardaigne (1/77 ou 1,3 %), district de Burzyansky en Bachkirie (1/80 ou 1,3 %), Hambourg (2/161 or 1,2 %), Cosaques du Kouban (1/90 ou 1,1 %) Rostock (1/96 ou 1 %), Magdebourg (1/100 ou 1 %) et Stockholm (2/228 ou 0,9 %)
+Selon les résultats du projet ADN Italie de la compagnie FTDNA de tests génétiques, 3,9 % d'Italiens appartiennent à cet haplogroupe. Approximativement 3 % de Juifs séfarades et 2 % de Juifs Ashkenazim appartiennent à l'haplogroupe T.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution haplogroupe T (hors T1)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Moyen-Orient et Caucase</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non confirmé mais probablement T1-M70+ : 28 % (7/25) des Lezguiens au Daghestan, 21,7 % (5/23) des Ossètes à Zamankul, 14 % (7/50) des Iraniens à Ispahan, 13 % (3/23) des Ossètes à Zil'ga, 12,6 % (11/87) de Kurdes Kurmandji dans l'est de la Turquie, 11,8 % (2/17) d ArabesPalestiniens en Palestine, 8,3 % (1/12) d'Iraniens de Chiraz, 8,3 % (2/24) d'Ossètes à Alagir, 8 % (2/25) of Kurdes Kurmandji en Géorgie, 7,5 % (6/80) d'Iraniens à Téhéran 7,4 % (10/135) d ArabesPalestiniens dans un village en Israël, 7 % (10/143) of d ArabesPalestiniens ein Israël et en Palestine, 5 % (1/19) de Tchétchènes en Tchétchénie 4,2 % (3/72) d'Azeris en Azerbaïdjan 4,1 % (2/48) d'Iraniens à Ispahan, 4 % (4/100) d'Arméniens en Arménie 4 % (1/24) de Bédouins en Israël et 2,6 % (1/39) de Turcs à Ankara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution haplogroupe T (hors T1)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non confirmé mais probablement T1-M70+ : 9,7 % (3/31) de Datogs en Centre Tanzanie, 5,8 % (4/69) de Kordofaniens au Kordofan, 5,6 % (1/18) de Touaregs à Gorom-Gorom, 4,8 % (5/105) de Tunisiens à Sfax, 4,8 % (3/63) de Libyens à Tripoli, 2,6 % (1/39) de Hutus au Rwanda 2,1 % (1/47) de Berbères à Sejnane, 1,9 % (1/53) d'Ovimbundus en Angola, et 1,5 % (1/68) de Mozabites à Ghardaia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution haplogroupe T (hors T1)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Extrême-Orient</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non confirmé mais probablement T1-M70+ : 4,9 % (2/41) de Xibe du [Xinjiang], 2 % (4/204) de Hui au Liaoning, et 0,9 % (1/113) de Bidayuh au Sarawak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haplogroupe_T_(Y-ADN)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Subclades</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Arbre
-Cet arbre phylogénétique des subclades de l'haplogroupe T se base sur l'arbre ISOGG 2011.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cet arbre phylogénétique des subclades de l'haplogroupe T se base sur l'arbre ISOGG 2011.
 T (L206, M184/PAGES00034/USP9Y+3178, M193, M272, PAGES00129)
 T1 (M70/PAGES00046, PAGES00078)
 T1a (L162/PAGES00021, L299)
